--- a/200213_VISUM-NET_VERSIONING(200228,v3,김민기).xlsx
+++ b/200213_VISUM-NET_VERSIONING(200228,v3,김민기).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20357"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{A3EFC428-2419-465E-8307-B2BD1AC2141D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{2CFFA43B-5E4C-4FC2-8F14-067A8BE6C7E7}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="8_{A3EFC428-2419-465E-8307-B2BD1AC2141D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{59C1409C-6EBF-4677-B9E2-B4A99683E97F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="99">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,6 +316,101 @@
     <t>200320_VISUM-NET(네크워크_개선2_수정)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>김민기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320번수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200323_VISUM-NET(320번수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간표입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운행횟수입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200331_VISUM-NET(운행횟수입력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운행횟수분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200406_VISUM-NET(운행횟수분석)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운행횟수분석_증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운행횟수분석_감소1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운행횟수분석_감소2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운행횟수분석_감소3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크_개선_v9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개편v9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크_408</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200409_VISUM-NET(개편v9,네트워크_408)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크_개선6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크_개선6_개편v9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_profile_items</t>
+  </si>
+  <si>
+    <t>200413_VISUM-NET(개편v9,네트워크_개선6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노선정보수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200415_VISUM-NET(개편v9,네트워크_개선6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7700번추가_순환83번수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200416_VISUM-NET(7700번추가,순환83번수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -393,8 +488,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0D378EBA-141F-46D4-A49C-F139A2F1B4A0}" name="표2" displayName="표2" ref="A1:G1557" totalsRowShown="0">
-  <autoFilter ref="A1:G1557" xr:uid="{15C8852E-70B2-4452-9F41-B1892DCF7EAB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0D378EBA-141F-46D4-A49C-F139A2F1B4A0}" name="표2" displayName="표2" ref="A1:G1554" totalsRowShown="0">
+  <autoFilter ref="A1:G1554" xr:uid="{15C8852E-70B2-4452-9F41-B1892DCF7EAB}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{86256821-A0A0-466D-856A-7DCD0FE965D1}" name="구분"/>
     <tableColumn id="2" xr3:uid="{6E8F43E4-3AA4-4D58-9BAA-16B1FADDDA40}" name="일자"/>
@@ -673,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1557"/>
+  <dimension ref="A1:G1554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="G161" sqref="G161"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="G200" sqref="G200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3885,426 +3980,1032 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>71</v>
+      </c>
+      <c r="B165">
+        <v>200323</v>
+      </c>
       <c r="C165">
         <f>COUNTIF($A$2:$A165,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D165" t="s">
+        <v>76</v>
+      </c>
+      <c r="E165" t="s">
+        <v>75</v>
       </c>
       <c r="F165" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
+        <v>네트워크_개선2(200323,v2,320번수정,김민기)</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166">
+        <v>200323</v>
+      </c>
       <c r="C166">
         <f>COUNTIF($A$2:$A166,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="D166" t="s">
+        <v>76</v>
+      </c>
+      <c r="E166" t="s">
+        <v>75</v>
       </c>
       <c r="F166" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
+        <v>time_profile_items(200323,v38,320번수정,김민기)</v>
+      </c>
+      <c r="G166" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167">
+        <v>200323</v>
+      </c>
       <c r="C167">
         <f>COUNTIF($A$2:$A167,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="D167" t="s">
+        <v>76</v>
+      </c>
+      <c r="E167" t="s">
+        <v>75</v>
       </c>
       <c r="F167" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
+        <v>line_route_items(200323,v45,320번수정,김민기)</v>
+      </c>
+      <c r="G167" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168">
+        <v>200323</v>
+      </c>
       <c r="C168">
         <f>COUNTIF($A$2:$A168,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="D168" t="s">
+        <v>76</v>
+      </c>
+      <c r="E168" t="s">
+        <v>75</v>
       </c>
       <c r="F168" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
+        <v>vehicle_journey_sections(200323,v24,320번수정,김민기)</v>
+      </c>
+      <c r="G168" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>14</v>
+      </c>
+      <c r="B169">
+        <v>200323</v>
+      </c>
       <c r="C169">
         <f>COUNTIF($A$2:$A169,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="D169" t="s">
+        <v>76</v>
+      </c>
+      <c r="E169" t="s">
+        <v>75</v>
       </c>
       <c r="F169" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
+        <v>vehicle_journeys(200323,v25,320번수정,김민기)</v>
+      </c>
+      <c r="G169" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>71</v>
+      </c>
+      <c r="B170">
+        <v>200331</v>
+      </c>
       <c r="C170">
         <f>COUNTIF($A$2:$A170,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D170" t="s">
+        <v>78</v>
+      </c>
+      <c r="E170" t="s">
+        <v>8</v>
       </c>
       <c r="F170" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
+        <v>네트워크_개선2(200331,v3,시간표입력,김민기)</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>71</v>
+      </c>
+      <c r="B171">
+        <v>200331</v>
+      </c>
       <c r="C171">
         <f>COUNTIF($A$2:$A171,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D171" t="s">
+        <v>79</v>
+      </c>
+      <c r="E171" t="s">
+        <v>8</v>
       </c>
       <c r="F171" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
+        <v>네트워크_개선2(200331,v4,운행횟수입력,김민기)</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172">
+        <v>200331</v>
+      </c>
       <c r="C172">
         <f>COUNTIF($A$2:$A172,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="D172" t="s">
+        <v>79</v>
+      </c>
+      <c r="E172" t="s">
+        <v>8</v>
       </c>
       <c r="F172" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
+        <v>time_profile_items(200331,v39,운행횟수입력,김민기)</v>
+      </c>
+      <c r="G172" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173">
+        <v>200331</v>
+      </c>
       <c r="C173">
         <f>COUNTIF($A$2:$A173,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="D173" t="s">
+        <v>79</v>
+      </c>
+      <c r="E173" t="s">
+        <v>8</v>
       </c>
       <c r="F173" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
+        <v>line_route_items(200331,v46,운행횟수입력,김민기)</v>
+      </c>
+      <c r="G173" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174">
+        <v>200331</v>
+      </c>
       <c r="C174">
         <f>COUNTIF($A$2:$A174,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="D174" t="s">
+        <v>79</v>
+      </c>
+      <c r="E174" t="s">
+        <v>8</v>
       </c>
       <c r="F174" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
+        <v>vehicle_journey_sections(200331,v25,운행횟수입력,김민기)</v>
+      </c>
+      <c r="G174" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>14</v>
+      </c>
+      <c r="B175">
+        <v>200331</v>
+      </c>
       <c r="C175">
         <f>COUNTIF($A$2:$A175,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="D175" t="s">
+        <v>79</v>
+      </c>
+      <c r="E175" t="s">
+        <v>8</v>
       </c>
       <c r="F175" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
+        <v>vehicle_journeys(200331,v26,운행횟수입력,김민기)</v>
+      </c>
+      <c r="G175" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>71</v>
+      </c>
+      <c r="B176">
+        <v>200406</v>
+      </c>
       <c r="C176">
         <f>COUNTIF($A$2:$A176,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D176" t="s">
+        <v>81</v>
+      </c>
+      <c r="E176" t="s">
+        <v>8</v>
       </c>
       <c r="F176" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.3">
+        <v>네트워크_개선2(200406,v5,운행횟수분석,김민기)</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177">
+        <v>200406</v>
+      </c>
       <c r="C177">
         <f>COUNTIF($A$2:$A177,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="D177" t="s">
+        <v>81</v>
+      </c>
+      <c r="E177" t="s">
+        <v>8</v>
       </c>
       <c r="F177" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.3">
+        <v>time_profile_items(200406,v40,운행횟수분석,김민기)</v>
+      </c>
+      <c r="G177" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178">
+        <v>200406</v>
+      </c>
       <c r="C178">
         <f>COUNTIF($A$2:$A178,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="D178" t="s">
+        <v>81</v>
+      </c>
+      <c r="E178" t="s">
+        <v>8</v>
       </c>
       <c r="F178" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.3">
+        <v>line_route_items(200406,v47,운행횟수분석,김민기)</v>
+      </c>
+      <c r="G178" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179">
+        <v>200406</v>
+      </c>
       <c r="C179">
         <f>COUNTIF($A$2:$A179,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="D179" t="s">
+        <v>81</v>
+      </c>
+      <c r="E179" t="s">
+        <v>8</v>
       </c>
       <c r="F179" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.3">
+        <v>vehicle_journey_sections(200406,v26,운행횟수분석,김민기)</v>
+      </c>
+      <c r="G179" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>14</v>
+      </c>
+      <c r="B180">
+        <v>200406</v>
+      </c>
       <c r="C180">
         <f>COUNTIF($A$2:$A180,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="D180" t="s">
+        <v>81</v>
+      </c>
+      <c r="E180" t="s">
+        <v>8</v>
       </c>
       <c r="F180" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.3">
+        <v>vehicle_journeys(200406,v27,운행횟수분석,김민기)</v>
+      </c>
+      <c r="G180" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181">
+        <v>200406</v>
+      </c>
       <c r="C181">
         <f>COUNTIF($A$2:$A181,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="D181" t="s">
+        <v>83</v>
+      </c>
+      <c r="E181" t="s">
+        <v>8</v>
       </c>
       <c r="F181" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.3">
+        <v>vehicle_journey_sections(200406,v27,운행횟수분석_증가,김민기)</v>
+      </c>
+      <c r="G181" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>14</v>
+      </c>
+      <c r="B182">
+        <v>200406</v>
+      </c>
       <c r="C182">
         <f>COUNTIF($A$2:$A182,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="D182" t="s">
+        <v>83</v>
+      </c>
+      <c r="E182" t="s">
+        <v>8</v>
       </c>
       <c r="F182" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.3">
+        <v>vehicle_journeys(200406,v28,운행횟수분석_증가,김민기)</v>
+      </c>
+      <c r="G182" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183">
+        <v>200406</v>
+      </c>
       <c r="C183">
         <f>COUNTIF($A$2:$A183,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="D183" t="s">
+        <v>84</v>
+      </c>
+      <c r="E183" t="s">
+        <v>8</v>
       </c>
       <c r="F183" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.3">
+        <v>vehicle_journey_sections(200406,v28,운행횟수분석_감소1,김민기)</v>
+      </c>
+      <c r="G183" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>14</v>
+      </c>
+      <c r="B184">
+        <v>200406</v>
+      </c>
       <c r="C184">
         <f>COUNTIF($A$2:$A184,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="D184" t="s">
+        <v>84</v>
+      </c>
+      <c r="E184" t="s">
+        <v>8</v>
       </c>
       <c r="F184" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.3">
+        <v>vehicle_journeys(200406,v29,운행횟수분석_감소1,김민기)</v>
+      </c>
+      <c r="G184" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185">
+        <v>200406</v>
+      </c>
       <c r="C185">
         <f>COUNTIF($A$2:$A185,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="D185" t="s">
+        <v>85</v>
+      </c>
+      <c r="E185" t="s">
+        <v>8</v>
       </c>
       <c r="F185" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.3">
+        <v>vehicle_journey_sections(200406,v29,운행횟수분석_감소2,김민기)</v>
+      </c>
+      <c r="G185" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>14</v>
+      </c>
+      <c r="B186">
+        <v>200406</v>
+      </c>
       <c r="C186">
         <f>COUNTIF($A$2:$A186,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="D186" t="s">
+        <v>85</v>
+      </c>
+      <c r="E186" t="s">
+        <v>8</v>
       </c>
       <c r="F186" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.3">
+        <v>vehicle_journeys(200406,v30,운행횟수분석_감소2,김민기)</v>
+      </c>
+      <c r="G186" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>13</v>
+      </c>
+      <c r="B187">
+        <v>200406</v>
+      </c>
       <c r="C187">
         <f>COUNTIF($A$2:$A187,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="D187" t="s">
+        <v>86</v>
+      </c>
+      <c r="E187" t="s">
+        <v>8</v>
       </c>
       <c r="F187" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.3">
+        <v>vehicle_journey_sections(200406,v30,운행횟수분석_감소3,김민기)</v>
+      </c>
+      <c r="G187" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>14</v>
+      </c>
+      <c r="B188">
+        <v>200406</v>
+      </c>
       <c r="C188">
         <f>COUNTIF($A$2:$A188,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="D188" t="s">
+        <v>86</v>
+      </c>
+      <c r="E188" t="s">
+        <v>8</v>
       </c>
       <c r="F188" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.3">
+        <v>vehicle_journeys(200406,v31,운행횟수분석_감소3,김민기)</v>
+      </c>
+      <c r="G188" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>87</v>
+      </c>
+      <c r="B189">
+        <v>200409</v>
+      </c>
       <c r="C189">
         <f>COUNTIF($A$2:$A189,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D189" t="s">
+        <v>88</v>
+      </c>
+      <c r="E189" t="s">
+        <v>8</v>
       </c>
       <c r="F189" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.3">
+        <v>네트워크_개선_v9(200409,v1,개편v9,김민기)</v>
+      </c>
+      <c r="G189" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190">
+        <v>200409</v>
+      </c>
       <c r="C190">
         <f>COUNTIF($A$2:$A190,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="D190" t="s">
+        <v>88</v>
+      </c>
+      <c r="E190" t="s">
+        <v>8</v>
       </c>
       <c r="F190" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.3">
+        <v>line_route_items(200409,v48,개편v9,김민기)</v>
+      </c>
+      <c r="G190" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>91</v>
+      </c>
+      <c r="B191">
+        <v>200413</v>
+      </c>
       <c r="C191">
         <f>COUNTIF($A$2:$A191,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D191" t="s">
+        <v>92</v>
+      </c>
+      <c r="E191" t="s">
+        <v>8</v>
       </c>
       <c r="F191" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.3">
+        <v>네트워크_개선6(200413,v1,네트워크_개선6_개편v9,김민기)</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>10</v>
+      </c>
+      <c r="B192">
+        <v>200413</v>
+      </c>
       <c r="C192">
         <f>COUNTIF($A$2:$A192,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="D192" t="s">
+        <v>92</v>
+      </c>
+      <c r="E192" t="s">
+        <v>8</v>
       </c>
       <c r="F192" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.3">
+        <v>line_route_items(200413,v49,네트워크_개선6_개편v9,김민기)</v>
+      </c>
+      <c r="G192" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>93</v>
+      </c>
+      <c r="B193">
+        <v>200413</v>
+      </c>
       <c r="C193">
         <f>COUNTIF($A$2:$A193,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="D193" t="s">
+        <v>92</v>
+      </c>
+      <c r="E193" t="s">
+        <v>8</v>
       </c>
       <c r="F193" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.3">
+        <v>time_profile_items(200413,v41,네트워크_개선6_개편v9,김민기)</v>
+      </c>
+      <c r="G193" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194">
+        <v>200413</v>
+      </c>
       <c r="C194">
         <f>COUNTIF($A$2:$A194,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="D194" t="s">
+        <v>92</v>
+      </c>
+      <c r="E194" t="s">
+        <v>8</v>
       </c>
       <c r="F194" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.3">
+        <v>vehicle_journey_sections(200413,v31,네트워크_개선6_개편v9,김민기)</v>
+      </c>
+      <c r="G194" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>14</v>
+      </c>
+      <c r="B195">
+        <v>200413</v>
+      </c>
       <c r="C195">
         <f>COUNTIF($A$2:$A195,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="D195" t="s">
+        <v>92</v>
+      </c>
+      <c r="E195" t="s">
+        <v>8</v>
       </c>
       <c r="F195" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.3">
+        <v>vehicle_journeys(200413,v32,네트워크_개선6_개편v9,김민기)</v>
+      </c>
+      <c r="G195" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>91</v>
+      </c>
+      <c r="B196">
+        <v>200414</v>
+      </c>
       <c r="C196">
         <f>COUNTIF($A$2:$A196,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D196" t="s">
+        <v>92</v>
+      </c>
+      <c r="E196" t="s">
+        <v>8</v>
       </c>
       <c r="F196" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.3">
+        <v>네트워크_개선6(200414,v2,네트워크_개선6_개편v9,김민기)</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>91</v>
+      </c>
+      <c r="B197">
+        <v>200415</v>
+      </c>
       <c r="C197">
         <f>COUNTIF($A$2:$A197,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D197" t="s">
+        <v>95</v>
+      </c>
+      <c r="E197" t="s">
+        <v>8</v>
       </c>
       <c r="F197" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.3">
+        <v>네트워크_개선6(200415,v3,노선정보수정,김민기)</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198">
+        <v>200415</v>
+      </c>
       <c r="C198">
         <f>COUNTIF($A$2:$A198,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="D198" t="s">
+        <v>95</v>
+      </c>
+      <c r="E198" t="s">
+        <v>8</v>
       </c>
       <c r="F198" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.3">
+        <v>line_route_items(200415,v50,노선정보수정,김민기)</v>
+      </c>
+      <c r="G198" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>93</v>
+      </c>
+      <c r="B199">
+        <v>200415</v>
+      </c>
       <c r="C199">
         <f>COUNTIF($A$2:$A199,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D199" t="s">
+        <v>95</v>
+      </c>
+      <c r="E199" t="s">
+        <v>8</v>
       </c>
       <c r="F199" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.3">
+        <v>time_profile_items(200415,v42,노선정보수정,김민기)</v>
+      </c>
+      <c r="G199" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200">
+        <v>200415</v>
+      </c>
       <c r="C200">
         <f>COUNTIF($A$2:$A200,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="D200" t="s">
+        <v>95</v>
+      </c>
+      <c r="E200" t="s">
+        <v>8</v>
       </c>
       <c r="F200" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.3">
+        <v>vehicle_journey_sections(200415,v32,노선정보수정,김민기)</v>
+      </c>
+      <c r="G200" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>14</v>
+      </c>
+      <c r="B201">
+        <v>200415</v>
+      </c>
       <c r="C201">
         <f>COUNTIF($A$2:$A201,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="D201" t="s">
+        <v>95</v>
+      </c>
+      <c r="E201" t="s">
+        <v>8</v>
       </c>
       <c r="F201" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.3">
+        <v>vehicle_journeys(200415,v33,노선정보수정,김민기)</v>
+      </c>
+      <c r="G201" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>91</v>
+      </c>
+      <c r="B202">
+        <v>200416</v>
+      </c>
       <c r="C202">
         <f>COUNTIF($A$2:$A202,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D202" t="s">
+        <v>97</v>
+      </c>
+      <c r="E202" t="s">
+        <v>8</v>
       </c>
       <c r="F202" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.3">
+        <v>네트워크_개선6(200416,v4,7700번추가_순환83번수정,김민기)</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203">
+        <v>200416</v>
+      </c>
       <c r="C203">
         <f>COUNTIF($A$2:$A203,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="D203" t="s">
+        <v>97</v>
+      </c>
+      <c r="E203" t="s">
+        <v>8</v>
       </c>
       <c r="F203" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.3">
+        <v>line_route_items(200416,v51,7700번추가_순환83번수정,김민기)</v>
+      </c>
+      <c r="G203" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>93</v>
+      </c>
+      <c r="B204">
+        <v>200416</v>
+      </c>
       <c r="C204">
         <f>COUNTIF($A$2:$A204,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="D204" t="s">
+        <v>97</v>
+      </c>
+      <c r="E204" t="s">
+        <v>8</v>
       </c>
       <c r="F204" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.3">
+        <v>time_profile_items(200416,v43,7700번추가_순환83번수정,김민기)</v>
+      </c>
+      <c r="G204" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205">
+        <v>200416</v>
+      </c>
       <c r="C205">
         <f>COUNTIF($A$2:$A205,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="D205" t="s">
+        <v>97</v>
+      </c>
+      <c r="E205" t="s">
+        <v>8</v>
       </c>
       <c r="F205" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.3">
+        <v>vehicle_journey_sections(200416,v33,7700번추가_순환83번수정,김민기)</v>
+      </c>
+      <c r="G205" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>14</v>
+      </c>
+      <c r="B206">
+        <v>200416</v>
+      </c>
       <c r="C206">
         <f>COUNTIF($A$2:$A206,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="D206" t="s">
+        <v>97</v>
+      </c>
+      <c r="E206" t="s">
+        <v>8</v>
       </c>
       <c r="F206" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.3">
+        <v>vehicle_journeys(200416,v34,7700번추가_순환83번수정,김민기)</v>
+      </c>
+      <c r="G206" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C207">
         <f>COUNTIF($A$2:$A207,표2[[#This Row],[구분]])</f>
         <v>0</v>
@@ -4314,7 +5015,7 @@
         <v>(,v0,,)</v>
       </c>
     </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C208">
         <f>COUNTIF($A$2:$A208,표2[[#This Row],[구분]])</f>
         <v>0</v>
@@ -17780,36 +18481,6 @@
         <v>0</v>
       </c>
       <c r="F1554" s="1" t="str">
-        <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="1555" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C1555">
-        <f>COUNTIF($A$2:$A1555,표2[[#This Row],[구분]])</f>
-        <v>0</v>
-      </c>
-      <c r="F1555" s="1" t="str">
-        <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="1556" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C1556">
-        <f>COUNTIF($A$2:$A1556,표2[[#This Row],[구분]])</f>
-        <v>0</v>
-      </c>
-      <c r="F1556" s="1" t="str">
-        <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="1557" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C1557">
-        <f>COUNTIF($A$2:$A1557,표2[[#This Row],[구분]])</f>
-        <v>0</v>
-      </c>
-      <c r="F1557" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
         <v>(,v0,,)</v>
       </c>
@@ -17828,21 +18499,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100A4A9BE7CBF07D14AB2659FA8CBA94255" ma:contentTypeVersion="8" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="289ae30fa36b8a49135e65027d40641d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="775a50e0-8fa9-4d23-80e2-24a5f9a344bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="76e915daa4c5ebff50908e0460476fec" ns3:_="">
     <xsd:import namespace="775a50e0-8fa9-4d23-80e2-24a5f9a344bf"/>
@@ -18012,31 +18668,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6770E78A-FE5D-44A8-A2BE-65DE55F8A18B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="775a50e0-8fa9-4d23-80e2-24a5f9a344bf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E8CACA-08B2-4F9E-9ED8-A7576B7D4F87}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5718E5A6-637C-4545-B83B-43991C76292D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18052,4 +18699,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6770E78A-FE5D-44A8-A2BE-65DE55F8A18B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="775a50e0-8fa9-4d23-80e2-24a5f9a344bf"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E8CACA-08B2-4F9E-9ED8-A7576B7D4F87}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>